--- a/document/run_list.xlsx
+++ b/document/run_list.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14280" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
   <si>
     <t>real</t>
   </si>
@@ -53,21 +53,9 @@
     <t>Real Time, y</t>
   </si>
   <si>
-    <t>uniform monte-carlo</t>
-  </si>
-  <si>
     <t>relative error, %</t>
   </si>
   <si>
-    <t>simpson 1dim</t>
-  </si>
-  <si>
-    <t>normal monte-carlo</t>
-  </si>
-  <si>
-    <t>simpson 4dim</t>
-  </si>
-  <si>
     <t>points</t>
   </si>
   <si>
@@ -77,13 +65,68 @@
     <t>One formula evolutionary approach  for real bound integrals</t>
   </si>
   <si>
-    <t>One formula evolutionary approach for real bound integrals</t>
-  </si>
-  <si>
     <t>Formal run for Kerr Amendment Value with Conductivity for  Estimation for Erho component one point</t>
   </si>
   <si>
     <t>Single Core Run on Intel(R) Core(TM) i5-4670 CPU @ 3.40GHz with GNU/Linux on board</t>
+  </si>
+  <si>
+    <t>One formula evolutionary approach for infty bound integrals (no conductivity)</t>
+  </si>
+  <si>
+    <t>One formula evolutionary approach for real bound integrals (no conductivity) review 1</t>
+  </si>
+  <si>
+    <t>One formula evolutionary approach for real bound integrals (no conductivity) review 2</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Gauss-Laguerre Quad</t>
+  </si>
+  <si>
+    <t>Normal Monte-Carlo</t>
+  </si>
+  <si>
+    <t>Uniform Monte-Carlo</t>
+  </si>
+  <si>
+    <t>Simpson Multi</t>
+  </si>
+  <si>
+    <t>Simpson</t>
+  </si>
+  <si>
+    <t>кратный интеграл
+[0;infty] [0,2R] [0,2R] [0;infty]</t>
+  </si>
+  <si>
+    <t>[0;infty] [0,2R] [z',z'+2R] [0;infty]</t>
+  </si>
+  <si>
+    <t>one scicul for func_frid update and int_summation
+[0;infty] [0,2R] [0,2R] [0;infty]</t>
+  </si>
+  <si>
+    <t>extirnal var declaration and arg_grid update by +=
+[0;infty] [0,2R] [0,2R] [0;infty]</t>
+  </si>
+  <si>
+    <t>[0;infty] [0;infty] [0;infty] [0;infty]</t>
+  </si>
+  <si>
+    <t>less number of points
+[0;infty] [0,2R] [0,2R] [0;infty]</t>
+  </si>
+  <si>
+    <t>remote</t>
+  </si>
+  <si>
+    <t>One formula evolutionary approach for real bound integrals (no conductivity)</t>
+  </si>
+  <si>
+    <t>Filon Formula</t>
   </si>
 </sst>
 </file>
@@ -153,7 +196,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -167,11 +210,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -185,24 +231,39 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="17">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Гиперссылка" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Гиперссылка" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Гиперссылка" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Гиперссылка" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Гиперссылка" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Открывавшаяся гиперссылка" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Открывавшаяся гиперссылка" xfId="4" builtinId="9" hidden="1"/>
@@ -210,6 +271,8 @@
     <cellStyle name="Открывавшаяся гиперссылка" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Открывавшаяся гиперссылка" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Открывавшаяся гиперссылка" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="16" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -484,135 +547,147 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="2" max="2" width="25.1640625" customWidth="1"/>
     <col min="3" max="3" width="15.6640625" customWidth="1"/>
     <col min="4" max="4" width="14.5" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" customWidth="1"/>
     <col min="6" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="43.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9" t="s">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="15"/>
+      <c r="B5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="10" t="s">
+      <c r="C5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="D5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+    </row>
+    <row r="6" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1">
-        <v>9.9999999999999997E+98</v>
-      </c>
+      <c r="B6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="1">
+        <f>10000 * 10000 * 10000 * 10000</f>
+        <v>1E+16</v>
+      </c>
+      <c r="D6" s="11"/>
       <c r="E6" s="1">
-        <f xml:space="preserve"> 3738 * 10000 * 10000</f>
-        <v>373800000000</v>
+        <f xml:space="preserve"> 373.8 * 10000 * 10000</f>
+        <v>37380000000</v>
       </c>
       <c r="F6">
-        <f xml:space="preserve"> 3731 * 10000 * 10000</f>
-        <v>373100000000</v>
+        <f xml:space="preserve"> 373.1 * 10000 * 10000</f>
+        <v>37310000000</v>
       </c>
       <c r="G6">
-        <f xml:space="preserve"> 20 * 10000 * 10000</f>
-        <v>2000000000</v>
+        <f xml:space="preserve"> 2 * 10000 * 10000</f>
+        <v>200000000</v>
       </c>
       <c r="H6">
         <f>E6/60/24/365</f>
-        <v>711187.21461187222</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1">
-        <v>9.9999999999999997E+98</v>
-      </c>
+        <v>71118.721461187204</v>
+      </c>
+      <c r="I6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="1">
+        <f>10000 * 100 * 10000</f>
+        <v>10000000000</v>
+      </c>
+      <c r="D7" s="11"/>
       <c r="E7">
         <f>394*20*10000</f>
         <v>78800000</v>
@@ -626,84 +701,262 @@
         <v>640</v>
       </c>
       <c r="H7">
-        <f t="shared" ref="H7:H10" si="0">E7/60/24/365</f>
+        <f t="shared" ref="H7:H16" si="0">E7/60/24/365</f>
         <v>149.92389649923896</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>12</v>
+      <c r="I7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="C8" s="1">
-        <f>100^4</f>
-        <v>100000000</v>
-      </c>
-      <c r="D8" s="1"/>
+        <f>10000 * 10000 * 10000 * 10000</f>
+        <v>1E+16</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="1">
+        <f>E6/149</f>
+        <v>250872483.2214765</v>
+      </c>
+      <c r="F8">
+        <f>F6/149</f>
+        <v>250402684.5637584</v>
+      </c>
+      <c r="G8">
+        <f>G6/500</f>
+        <v>400000</v>
+      </c>
       <c r="H8">
         <f t="shared" si="0"/>
+        <v>477.30685544420942</v>
+      </c>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="1">
+        <f>10000 * 10000 * 20 * 20</f>
+        <v>40000000000</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9">
+        <f xml:space="preserve"> 10000 * 53.3</f>
+        <v>533000</v>
+      </c>
+      <c r="F9">
+        <f xml:space="preserve"> 10000 * 53.3</f>
+        <v>533000</v>
+      </c>
+      <c r="G9">
+        <f>0.012*10000</f>
+        <v>120</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>1.0140791476407915</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="1">
+        <f>10000 * 10000 * 20 * 20</f>
+        <v>40000000000</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10">
+        <f>50*10000</f>
+        <v>500000</v>
+      </c>
+      <c r="F10">
+        <f>50*10000</f>
+        <v>500000</v>
+      </c>
+      <c r="G10">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2">
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>0.9512937595129376</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="1">
+        <f>10000 * 10000 * 20 * 20</f>
+        <v>40000000000</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11">
+        <f>53.34*10000</f>
+        <v>533400</v>
+      </c>
+      <c r="F11">
+        <f>53.34*10000</f>
+        <v>533400</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>1.0148401826484019</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="1">
+        <f>2000 * 2000 * 20 * 20</f>
+        <v>1600000000</v>
+      </c>
+      <c r="D12" s="11">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <f>11*2000</f>
+        <v>22000</v>
+      </c>
+      <c r="F12">
+        <f>11*2000</f>
+        <v>22000</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>4.1856925418569259E-2</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="11">
         <v>5549.82</v>
       </c>
-      <c r="E10">
+      <c r="E13">
         <f>5*60 + 53</f>
         <v>353</v>
       </c>
-      <c r="F10">
+      <c r="F13">
         <f>5*60 + 53</f>
         <v>353</v>
       </c>
-      <c r="G10">
+      <c r="G13">
         <v>1</v>
       </c>
-      <c r="H10">
-        <f>E10/60/24/365</f>
+      <c r="H13">
+        <f t="shared" si="0"/>
         <v>6.7161339421613396E-4</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="E11" s="5"/>
-      <c r="H11">
-        <f>E11/60/24/365</f>
+      <c r="I13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="E14" s="4"/>
+      <c r="H14">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="I14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="I4:I5"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="H4:H5"/>
-    <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A2:H2"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:D4"/>
   </mergeCells>

--- a/document/run_list.xlsx
+++ b/document/run_list.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14280" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14280" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="33">
   <si>
     <t>real</t>
   </si>
@@ -127,6 +127,10 @@
   </si>
   <si>
     <t>Filon Formula</t>
+  </si>
+  <si>
+    <t>less number of points
+[0;2R] [0,2R] [0,2R] [0;infty]</t>
   </si>
 </sst>
 </file>
@@ -158,12 +162,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
@@ -177,6 +175,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -215,7 +219,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -224,34 +228,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -547,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -565,84 +572,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12" t="s">
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12" t="s">
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="16"/>
+      <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
     </row>
     <row r="6" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
@@ -655,7 +662,7 @@
         <f>10000 * 10000 * 10000 * 10000</f>
         <v>1E+16</v>
       </c>
-      <c r="D6" s="11"/>
+      <c r="D6" s="10"/>
       <c r="E6" s="1">
         <f xml:space="preserve"> 373.8 * 10000 * 10000</f>
         <v>37380000000</v>
@@ -687,7 +694,7 @@
         <f>10000 * 100 * 10000</f>
         <v>10000000000</v>
       </c>
-      <c r="D7" s="11"/>
+      <c r="D7" s="10"/>
       <c r="E7">
         <f>394*20*10000</f>
         <v>78800000</v>
@@ -701,7 +708,7 @@
         <v>640</v>
       </c>
       <c r="H7">
-        <f t="shared" ref="H7:H16" si="0">E7/60/24/365</f>
+        <f t="shared" ref="H7:H13" si="0">E7/60/24/365</f>
         <v>149.92389649923896</v>
       </c>
       <c r="I7" t="s">
@@ -712,14 +719,14 @@
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="1">
         <f>10000 * 10000 * 10000 * 10000</f>
         <v>1E+16</v>
       </c>
-      <c r="D8" s="11"/>
+      <c r="D8" s="10"/>
       <c r="E8" s="1">
         <f>E6/149</f>
         <v>250872483.2214765</v>
@@ -747,14 +754,14 @@
       <c r="A9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="1">
         <f>10000 * 10000 * 20 * 20</f>
         <v>40000000000</v>
       </c>
-      <c r="D9" s="11"/>
+      <c r="D9" s="10"/>
       <c r="E9">
         <f xml:space="preserve"> 10000 * 53.3</f>
         <v>533000</v>
@@ -771,7 +778,7 @@
         <f t="shared" si="0"/>
         <v>1.0140791476407915</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="I9" s="9" t="s">
         <v>23</v>
       </c>
     </row>
@@ -779,14 +786,14 @@
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="1">
         <f>10000 * 10000 * 20 * 20</f>
         <v>40000000000</v>
       </c>
-      <c r="D10" s="11"/>
+      <c r="D10" s="10"/>
       <c r="E10">
         <f>50*10000</f>
         <v>500000</v>
@@ -802,7 +809,7 @@
         <f t="shared" si="0"/>
         <v>0.9512937595129376</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="9" t="s">
         <v>25</v>
       </c>
     </row>
@@ -810,14 +817,14 @@
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="1">
         <f>10000 * 10000 * 20 * 20</f>
         <v>40000000000</v>
       </c>
-      <c r="D11" s="11"/>
+      <c r="D11" s="10"/>
       <c r="E11">
         <f>53.34*10000</f>
         <v>533400</v>
@@ -833,7 +840,7 @@
         <f t="shared" si="0"/>
         <v>1.0148401826484019</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="9" t="s">
         <v>26</v>
       </c>
     </row>
@@ -841,14 +848,14 @@
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="1">
         <f>2000 * 2000 * 20 * 20</f>
         <v>1600000000</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="10">
         <v>10</v>
       </c>
       <c r="E12">
@@ -866,68 +873,93 @@
         <f t="shared" si="0"/>
         <v>4.1856925418569259E-2</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="I12" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="11">
-        <v>5549.82</v>
+        <v>16</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13">
+        <f>3*20+2000</f>
+        <v>2060</v>
       </c>
       <c r="E13">
-        <f>5*60 + 53</f>
-        <v>353</v>
+        <v>384</v>
       </c>
       <c r="F13">
-        <f>5*60 + 53</f>
-        <v>353</v>
+        <v>384</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
-        <v>6.7161339421613396E-4</v>
-      </c>
-      <c r="I13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+        <v>7.3059360730593609E-4</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="E14" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14">
+        <f>3*40+4000</f>
+        <v>4120</v>
+      </c>
+      <c r="E14">
+        <f>336*10</f>
+        <v>3360</v>
+      </c>
+      <c r="F14">
+        <f>336*10</f>
+        <v>3360</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
       <c r="H14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I14" t="s">
-        <v>27</v>
+        <f t="shared" ref="H14" si="1">E14/60/24/365</f>
+        <v>6.392694063926941E-3</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>18</v>
+      <c r="B15" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="C15" s="1"/>
+      <c r="D15" s="10">
+        <v>5549.82</v>
+      </c>
+      <c r="E15">
+        <f>5*60 + 53</f>
+        <v>353</v>
+      </c>
+      <c r="F15">
+        <f>5*60 + 53</f>
+        <v>353</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
       <c r="H15">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>E15/60/24/365</f>
+        <v>6.7161339421613396E-4</v>
       </c>
       <c r="I15" t="s">
         <v>27</v>
@@ -937,15 +969,44 @@
       <c r="A16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="E16" s="12"/>
+      <c r="I16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="H17">
+        <f>E17/60/24/365</f>
+        <v>0</v>
+      </c>
+      <c r="I17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="H16">
-        <f t="shared" si="0"/>
+      <c r="C18" s="1"/>
+      <c r="H18">
+        <f>E18/60/24/365</f>
         <v>0</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I18" t="s">
         <v>27</v>
       </c>
     </row>
